--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>655.9415662633676</v>
+        <v>1472.956516216998</v>
       </c>
       <c r="R2">
-        <v>655.9415662633676</v>
+        <v>13256.60864595298</v>
       </c>
       <c r="S2">
-        <v>0.0005956173151393446</v>
+        <v>0.001176722631536605</v>
       </c>
       <c r="T2">
-        <v>0.0005956173151393446</v>
+        <v>0.001308332808087487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>734.6329095694681</v>
+        <v>1576.275632919623</v>
       </c>
       <c r="R3">
-        <v>734.6329095694681</v>
+        <v>14186.48069627661</v>
       </c>
       <c r="S3">
-        <v>0.0006670717388796893</v>
+        <v>0.001259262707605246</v>
       </c>
       <c r="T3">
-        <v>0.0006670717388796893</v>
+        <v>0.001400104553279148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>377.9487674888754</v>
+        <v>791.4994909262474</v>
       </c>
       <c r="R4">
-        <v>377.9487674888754</v>
+        <v>7123.495418336227</v>
       </c>
       <c r="S4">
-        <v>0.0003431903720240275</v>
+        <v>0.0006323169445725889</v>
       </c>
       <c r="T4">
-        <v>0.0003431903720240275</v>
+        <v>0.0007030382364735031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>449.6527533805311</v>
+        <v>904.2933727148422</v>
       </c>
       <c r="R5">
-        <v>449.6527533805311</v>
+        <v>8138.640354433579</v>
       </c>
       <c r="S5">
-        <v>0.0004083000369060204</v>
+        <v>0.0007224262668358068</v>
       </c>
       <c r="T5">
-        <v>0.0004083000369060204</v>
+        <v>0.0008032258078449717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>887.2746837518941</v>
+        <v>1803.707991374241</v>
       </c>
       <c r="R6">
-        <v>887.2746837518941</v>
+        <v>10822.24794824545</v>
       </c>
       <c r="S6">
-        <v>0.0008056756761702543</v>
+        <v>0.001440954971016142</v>
       </c>
       <c r="T6">
-        <v>0.0008056756761702543</v>
+        <v>0.001068078754234745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>224874.1298395022</v>
+        <v>271592.403916987</v>
       </c>
       <c r="R7">
-        <v>224874.1298395022</v>
+        <v>2444331.635252883</v>
       </c>
       <c r="S7">
-        <v>0.2041933799412901</v>
+        <v>0.2169710542870278</v>
       </c>
       <c r="T7">
-        <v>0.2041933799412901</v>
+        <v>0.2412381143365636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>251851.6050628911</v>
+        <v>290642.9916070527</v>
       </c>
       <c r="R8">
-        <v>251851.6050628911</v>
+        <v>2615786.924463475</v>
       </c>
       <c r="S8">
-        <v>0.228689847596675</v>
+        <v>0.2321902799954332</v>
       </c>
       <c r="T8">
-        <v>0.228689847596675</v>
+        <v>0.2581595296083968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>129570.8407337742</v>
+        <v>145941.3411550175</v>
       </c>
       <c r="R9">
-        <v>129570.8407337742</v>
+        <v>1313472.070395157</v>
       </c>
       <c r="S9">
-        <v>0.1176547428116665</v>
+        <v>0.1165903250524836</v>
       </c>
       <c r="T9">
-        <v>0.1176547428116665</v>
+        <v>0.1296303336773238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>154152.8648998353</v>
+        <v>166738.9418749425</v>
       </c>
       <c r="R10">
-        <v>154152.8648998353</v>
+        <v>1500650.476874483</v>
       </c>
       <c r="S10">
-        <v>0.1399760592025248</v>
+        <v>0.1332052129866176</v>
       </c>
       <c r="T10">
-        <v>0.1399760592025248</v>
+        <v>0.1481035085822191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>304181.2452501528</v>
+        <v>332578.310322259</v>
       </c>
       <c r="R11">
-        <v>304181.2452501528</v>
+        <v>1995469.861933554</v>
       </c>
       <c r="S11">
-        <v>0.2762069457554311</v>
+        <v>0.2656917703989788</v>
       </c>
       <c r="T11">
-        <v>0.2762069457554311</v>
+        <v>0.1969386558540739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H12">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I12">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J12">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>52.99876151802658</v>
+        <v>161.266841374496</v>
       </c>
       <c r="R12">
-        <v>52.99876151802658</v>
+        <v>1451.401572370464</v>
       </c>
       <c r="S12">
-        <v>4.812468314960075E-05</v>
+        <v>0.0001288336348510621</v>
       </c>
       <c r="T12">
-        <v>4.812468314960075E-05</v>
+        <v>0.000143242992650443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H13">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I13">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J13">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>59.35686405629241</v>
+        <v>172.57874869884</v>
       </c>
       <c r="R13">
-        <v>59.35686405629241</v>
+        <v>1553.20873828956</v>
       </c>
       <c r="S13">
-        <v>5.389805711764416E-05</v>
+        <v>0.0001378705461297378</v>
       </c>
       <c r="T13">
-        <v>5.389805711764416E-05</v>
+        <v>0.0001532906344589701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H14">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I14">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J14">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>30.5375015464905</v>
+        <v>86.65742772843198</v>
       </c>
       <c r="R14">
-        <v>30.5375015464905</v>
+        <v>779.9168495558879</v>
       </c>
       <c r="S14">
-        <v>2.772909298277541E-05</v>
+        <v>6.922930532986016E-05</v>
       </c>
       <c r="T14">
-        <v>2.772909298277541E-05</v>
+        <v>7.697223544165713E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H15">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I15">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J15">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>36.33103963527503</v>
+        <v>99.00668097667601</v>
       </c>
       <c r="R15">
-        <v>36.33103963527503</v>
+        <v>891.0601287900841</v>
       </c>
       <c r="S15">
-        <v>3.298982317442463E-05</v>
+        <v>7.909493654150473E-05</v>
       </c>
       <c r="T15">
-        <v>3.298982317442463E-05</v>
+        <v>8.794128510617442E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H16">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I16">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J16">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>71.69001292756658</v>
+        <v>197.479210912434</v>
       </c>
       <c r="R16">
-        <v>71.69001292756658</v>
+        <v>1184.875265474604</v>
       </c>
       <c r="S16">
-        <v>6.509697695400766E-05</v>
+        <v>0.0001577631479138773</v>
       </c>
       <c r="T16">
-        <v>6.509697695400766E-05</v>
+        <v>0.0001169387453996425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H17">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>35.78816400985717</v>
+        <v>149.2134460380027</v>
       </c>
       <c r="R17">
-        <v>35.78816400985717</v>
+        <v>1342.921014342024</v>
       </c>
       <c r="S17">
-        <v>3.249687359004632E-05</v>
+        <v>0.0001192043600400601</v>
       </c>
       <c r="T17">
-        <v>3.249687359004632E-05</v>
+        <v>0.0001325367345946487</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H18">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J18">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>40.08156275944023</v>
+        <v>159.67987955119</v>
       </c>
       <c r="R18">
-        <v>40.08156275944023</v>
+        <v>1437.11891596071</v>
       </c>
       <c r="S18">
-        <v>3.639542609467984E-05</v>
+        <v>0.0001275658351079543</v>
       </c>
       <c r="T18">
-        <v>3.639542609467984E-05</v>
+        <v>0.0001418333962395822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H19">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J19">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>20.62088023368895</v>
+        <v>80.18048413387865</v>
       </c>
       <c r="R19">
-        <v>20.62088023368895</v>
+        <v>721.6243572049079</v>
       </c>
       <c r="S19">
-        <v>1.872446259285904E-05</v>
+        <v>6.40549732793313E-05</v>
       </c>
       <c r="T19">
-        <v>1.872446259285904E-05</v>
+        <v>7.121918183308895E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H20">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J20">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>24.53304884631308</v>
+        <v>91.60673033217435</v>
       </c>
       <c r="R20">
-        <v>24.53304884631308</v>
+        <v>824.4605729895691</v>
       </c>
       <c r="S20">
-        <v>2.227684513006818E-05</v>
+        <v>7.318322815108802E-05</v>
       </c>
       <c r="T20">
-        <v>2.227684513006818E-05</v>
+        <v>8.13683835304409E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H21">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J21">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>48.40969613314213</v>
+        <v>182.7192331043565</v>
       </c>
       <c r="R21">
-        <v>48.40969613314213</v>
+        <v>1096.315398626139</v>
       </c>
       <c r="S21">
-        <v>4.395765525546312E-05</v>
+        <v>0.0001459716253967359</v>
       </c>
       <c r="T21">
-        <v>4.395765525546312E-05</v>
+        <v>0.0001081985176104576</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H22">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I22">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J22">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>6996.483202961142</v>
+        <v>8169.575806411605</v>
       </c>
       <c r="R22">
-        <v>6996.483202961142</v>
+        <v>49017.45483846963</v>
       </c>
       <c r="S22">
-        <v>0.006353045385588587</v>
+        <v>0.006526550265141839</v>
       </c>
       <c r="T22">
-        <v>0.006353045385588587</v>
+        <v>0.004837673499073587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H23">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I23">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J23">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>7835.830318582908</v>
+        <v>8742.622835879534</v>
       </c>
       <c r="R23">
-        <v>7835.830318582908</v>
+        <v>52455.73701527721</v>
       </c>
       <c r="S23">
-        <v>0.007115201195174624</v>
+        <v>0.00698434884988322</v>
       </c>
       <c r="T23">
-        <v>0.007115201195174624</v>
+        <v>0.005177007449069395</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H24">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I24">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J24">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>4031.322817944523</v>
+        <v>4389.956540241518</v>
       </c>
       <c r="R24">
-        <v>4031.322817944523</v>
+        <v>26339.73924144911</v>
       </c>
       <c r="S24">
-        <v>0.003660578619772994</v>
+        <v>0.003507069730497939</v>
       </c>
       <c r="T24">
-        <v>0.003660578619772994</v>
+        <v>0.002599544568782128</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H25">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I25">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J25">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>4796.140537507829</v>
+        <v>5015.554212423988</v>
       </c>
       <c r="R25">
-        <v>4796.140537507829</v>
+        <v>30093.32527454393</v>
       </c>
       <c r="S25">
-        <v>0.004355059195675984</v>
+        <v>0.004006850227063039</v>
       </c>
       <c r="T25">
-        <v>0.004355059195675984</v>
+        <v>0.002969996762569725</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.5403777927003</v>
+        <v>59.10598950000001</v>
       </c>
       <c r="H26">
-        <v>56.5403777927003</v>
+        <v>118.211979</v>
       </c>
       <c r="I26">
-        <v>0.03007747965725144</v>
+        <v>0.0290169021651515</v>
       </c>
       <c r="J26">
-        <v>0.03007747965725144</v>
+        <v>0.01953353567463783</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>9463.956456740672</v>
+        <v>10004.049003434</v>
       </c>
       <c r="R26">
-        <v>9463.956456740672</v>
+        <v>40016.196013736</v>
       </c>
       <c r="S26">
-        <v>0.008593595261039259</v>
+        <v>0.00799208309256547</v>
       </c>
       <c r="T26">
-        <v>0.008593595261039259</v>
+        <v>0.003949313395142991</v>
       </c>
     </row>
   </sheetData>
